--- a/DSA (1).xlsx
+++ b/DSA (1).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="1242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="1242">
   <si>
     <t>Sno</t>
   </si>
@@ -19396,7 +19396,9 @@
       <c r="E357" s="4" t="s">
         <v>669</v>
       </c>
-      <c r="F357" s="4"/>
+      <c r="F357" s="4" t="s">
+        <v>649</v>
+      </c>
       <c r="G357" s="4"/>
       <c r="H357" s="4"/>
       <c r="I357" s="4"/>
